--- a/Initial_Screening.xlsx
+++ b/Initial_Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113A270-8A5E-496B-A099-707F91FD7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D74AB-5768-43E2-AB2A-E6CF459FE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5B9E699-CF0D-44E8-BC5F-C0E59BD17ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>FieldName</t>
   </si>
@@ -98,18 +98,12 @@
     <t>Lightning-base-combobox-item</t>
   </si>
   <si>
-    <t>//lightning-base-combobox-item[@data-value='Abuse/Neglect Referral']</t>
-  </si>
-  <si>
     <t>ScreeningNarrative</t>
   </si>
   <si>
     <t>div</t>
   </si>
   <si>
-    <t>//div[@aria-label='Screening Narrative']//div[@class='slds-rich-text-editor__textarea slds-grid']</t>
-  </si>
-  <si>
     <t>Caller Information</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Radio Button</t>
   </si>
   <si>
-    <t>//lightning-radio-group[@type='radio']//following-sibling::span[contains(text(),'Non-Mandated Reporter)')]</t>
-  </si>
-  <si>
     <t>Call Back Required (Incomplete Screening)</t>
   </si>
   <si>
@@ -137,15 +128,9 @@
     <t>CallBackRequiredValue</t>
   </si>
   <si>
-    <t>//lightning-base-combobox-item[@data-value='Yes']</t>
-  </si>
-  <si>
     <t>SaveAndProceed</t>
   </si>
   <si>
-    <t>//button[text()='Save and Proceed']</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>Text Area</t>
   </si>
 </sst>
 </file>
@@ -569,7 +551,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,13 +594,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -627,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -637,13 +619,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -652,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -662,13 +644,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -677,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -687,13 +669,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -702,22 +684,22 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -726,131 +708,121 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
     </row>
   </sheetData>
@@ -860,6 +832,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9911B63BE9B164EB5DAF366E8A327D5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482e6842186e59edea323b162a1d3181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
     <xsd:element name="properties">
@@ -973,22 +960,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48020F2B-1920-4744-8DC3-0BC80B7DF218}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF43ACC-F226-4469-9DDE-A82026049354}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1002,21 +991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48020F2B-1920-4744-8DC3-0BC80B7DF218}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Initial_Screening.xlsx
+++ b/Initial_Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D74AB-5768-43E2-AB2A-E6CF459FE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E6A0A-CE22-4A9E-B849-8DC82C584B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5B9E699-CF0D-44E8-BC5F-C0E59BD17ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>FieldName</t>
   </si>
@@ -551,7 +551,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,7 +710,9 @@
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -732,7 +734,9 @@
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -754,7 +758,9 @@
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -800,7 +806,9 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -822,7 +830,9 @@
       <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
   </sheetData>

--- a/Initial_Screening.xlsx
+++ b/Initial_Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E6A0A-CE22-4A9E-B849-8DC82C584B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679EA098-E3D1-4276-8F8C-E4226A59D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5B9E699-CF0D-44E8-BC5F-C0E59BD17ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>FieldName</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>NewBtn</t>
+  </si>
+  <si>
+    <t>Div</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A7AC30-42A0-4C86-BBC1-4F84EBEE2652}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,30 +598,28 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -628,16 +632,16 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
@@ -653,16 +657,16 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
@@ -678,17 +682,18 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -702,18 +707,18 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -726,10 +731,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
@@ -744,48 +749,48 @@
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -798,42 +803,66 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,18 +871,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,18 +1000,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48020F2B-1920-4744-8DC3-0BC80B7DF218}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48020F2B-1920-4744-8DC3-0BC80B7DF218}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
